--- a/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/test_data.xlsx
+++ b/v5-Sugungum/iter0/Cuts/Density_by_age_and_season/test_data.xlsx
@@ -449,12 +449,12 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Yglm</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Yerr</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Yglm</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -552,22 +552,22 @@
         <v>0.6509247626733144</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1784461457715579</v>
+        <v>0.6876816604375845</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8293709084448724</v>
+        <v>-0.03675689776427005</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.03543906702554918</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7939318414193232</v>
+        <v>0.6876816604377131</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001133102241877051</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002326861905539216</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="b">
@@ -630,22 +630,22 @@
         <v>0.6564014271189498</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02945726208331212</v>
+        <v>0.485028243619635</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6269441650356377</v>
+        <v>0.1713731834993147</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.00285595761985422</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6240882074157834</v>
+        <v>0.4850282436197636</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001017091496455752</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001166754451326227</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="b">
@@ -708,22 +708,22 @@
         <v>0.3620897165553322</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.07642808752160651</v>
+        <v>0.4380124470085797</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4385178040769387</v>
+        <v>-0.07592273045324749</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.05405675272474694</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3844610513521918</v>
+        <v>0.4380124470087082</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0009938761686740414</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V4" t="n">
-        <v>9.346011735091213e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="b">
@@ -786,22 +786,22 @@
         <v>0.3548165968229152</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.04350507608287346</v>
+        <v>0.4666791532827632</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3983216729057887</v>
+        <v>-0.111862556459848</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.04895086892020241</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3493708039855863</v>
+        <v>0.4666791532828918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0009889430904243973</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V5" t="n">
-        <v>8.852703910126833e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="b">
@@ -864,22 +864,22 @@
         <v>0.3409170125647418</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.05077951562772243</v>
+        <v>0.3835093432858883</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3916965281924643</v>
+        <v>-0.04259233072114649</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.01427085254390016</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3774256756485641</v>
+        <v>0.3835093432860169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0009744394682123626</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V6" t="n">
-        <v>7.402341688923352e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="b">
@@ -942,22 +942,22 @@
         <v>0.3465733696316158</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01382480674176356</v>
+        <v>0.361573517919367</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3603981763733793</v>
+        <v>-0.0150001482877512</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01087345610377246</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3712716324771518</v>
+        <v>0.3615735179194955</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001008281186758398</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001078651354352694</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="b">
@@ -1020,22 +1020,22 @@
         <v>0.3464855586255047</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01936961015999217</v>
+        <v>0.3328663257406512</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3658551687854969</v>
+        <v>0.01361923288485356</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0164045533248765</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3822597221103734</v>
+        <v>0.3328663257407797</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001044626259955635</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0001442102086325056</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="b">
@@ -1098,22 +1098,22 @@
         <v>0.3464396378957184</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01433483597779817</v>
+        <v>0.2735951854887018</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3321048019179202</v>
+        <v>0.07284445240701665</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02953487738133934</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3616396792992596</v>
+        <v>0.2735951854888303</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001007747286092147</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001073312347690181</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="b">
@@ -1176,22 +1176,22 @@
         <v>0.3535813149068174</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02084700002836487</v>
+        <v>0.3458046741187144</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3744283149351822</v>
+        <v>0.007776640788102973</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02135906898131527</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T10" t="n">
-        <v>0.353069245953867</v>
+        <v>0.345804674118843</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0009862815894621495</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V10" t="n">
-        <v>8.586553813902057e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="b">
@@ -1254,22 +1254,22 @@
         <v>0.3500821557079958</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02008865496644979</v>
+        <v>0.3062128923254483</v>
       </c>
       <c r="R11" t="n">
-        <v>0.329993500741546</v>
+        <v>0.04386926338254749</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.02864453753686271</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3013489632046834</v>
+        <v>0.3062128923255769</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0009820489972113134</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V11" t="n">
-        <v>8.163294588818422e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="b">
@@ -1332,22 +1332,22 @@
         <v>0.3615749242145338</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.009017206368472142</v>
+        <v>0.3598323936330917</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3705921305830059</v>
+        <v>0.001742530581442137</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01742985085109144</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3531622797319145</v>
+        <v>0.3598323936332202</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001002406309355057</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001019902580319276</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="b">
@@ -1410,22 +1410,22 @@
         <v>0.6527469653031122</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008975493940646007</v>
+        <v>0.6271121682286698</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6437714713624662</v>
+        <v>0.02563479707444238</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.001523654709164824</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6422478166533013</v>
+        <v>0.6271121682287983</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001007248006514482</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001068319551913531</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="b">
@@ -1488,22 +1488,22 @@
         <v>0.3531891432673815</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.03083419853576869</v>
+        <v>0.4153933263559565</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3840233418031502</v>
+        <v>-0.062204183088575</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.04057378211926203</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3434495596838881</v>
+        <v>0.4153933263560851</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0009781326613363169</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V14" t="n">
-        <v>7.771661001318776e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="b">
@@ -1566,22 +1566,22 @@
         <v>0.6548869303554418</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01610783061826648</v>
+        <v>0.6197720490325688</v>
       </c>
       <c r="R15" t="n">
-        <v>0.6387790997371753</v>
+        <v>0.03511488132287299</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03423063895732924</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6730097386945045</v>
+        <v>0.6197720490326973</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0009778165649537735</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V15" t="n">
-        <v>7.740051363064416e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="b">
@@ -1644,22 +1644,22 @@
         <v>0.3637984751218055</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.02686134766172871</v>
+        <v>0.3950080504618158</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3906598227835342</v>
+        <v>-0.03120957534001023</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01844386720663401</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4091036899901682</v>
+        <v>0.3950080504619443</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001066881488126343</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001664654368032135</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="b">
@@ -1722,22 +1722,22 @@
         <v>0.6062195137044827</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1191267311620393</v>
+        <v>0.5065516705575808</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4870927825424434</v>
+        <v>0.09966784314690191</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02558272997276432</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5126755125152077</v>
+        <v>0.5065516705577093</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0009958281271914295</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V17" t="n">
-        <v>9.541207586830053e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="b">
@@ -1800,22 +1800,22 @@
         <v>0.6367829510175468</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.03057888694185451</v>
+        <v>0.5300108218750932</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6062040640756923</v>
+        <v>0.1067721291424536</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01153816000612778</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T18" t="n">
-        <v>0.61774222408182</v>
+        <v>0.5300108218752217</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0010138248729288</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001134088216056708</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="b">
@@ -1878,22 +1878,22 @@
         <v>0.3519679814033663</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.1151801864636201</v>
+        <v>0.3162730747708147</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4671481678669864</v>
+        <v>0.03569490663255165</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02472306340606361</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4424251044609228</v>
+        <v>0.3162730747709432</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001022147125407057</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0001217310740839281</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="b">
@@ -1956,22 +1956,22 @@
         <v>0.6027008882017003</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06764072099777096</v>
+        <v>0.6141401951586175</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5350601672039293</v>
+        <v>-0.01143930695691719</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04093149737705917</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5759916645809885</v>
+        <v>0.6141401951587461</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0009802457098382754</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V20" t="n">
-        <v>7.982965851514626e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="b">
@@ -2034,22 +2034,22 @@
         <v>0.4020125101898096</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.07101017734396414</v>
+        <v>0.443574015457025</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4730226875337737</v>
+        <v>-0.04156150526721536</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.03718761687322727</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4358350706605465</v>
+        <v>0.4435740154571535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001008501021434098</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0001080849701109685</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="b">
@@ -2112,22 +2112,22 @@
         <v>0.45766453893055</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01629554269063405</v>
+        <v>0.4577184545255421</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4413689962399159</v>
+        <v>-5.391559499212661e-05</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.02374555689173665</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4176234393481793</v>
+        <v>0.4577184545256707</v>
       </c>
       <c r="U22" t="n">
-        <v>0.001021908626825041</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0001214925755019125</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="b">
@@ -2190,22 +2190,22 @@
         <v>0.3499384796788623</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01251395610940198</v>
+        <v>0.3718069884886606</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3374245235694603</v>
+        <v>-0.02186850880979829</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01206121165148644</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3494857352209468</v>
+        <v>0.3718069884887892</v>
       </c>
       <c r="U23" t="n">
-        <v>0.001031463203673394</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0001310471523502652</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="b">
@@ -2268,22 +2268,22 @@
         <v>0.6484413030039368</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.04880530531603544</v>
+        <v>0.7492466418763813</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5996359976879013</v>
+        <v>-0.1008053388724446</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01958255691306883</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6192185546009702</v>
+        <v>0.7492466418765099</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0009855920899026615</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V24" t="n">
-        <v>8.517603857953225e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="b">
@@ -2346,22 +2346,22 @@
         <v>0.6515680728298635</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.007919386087404279</v>
+        <v>0.7444824352314566</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6436486867424592</v>
+        <v>-0.09291436240159312</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.03169688356213179</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6119518031803275</v>
+        <v>0.7444824352315852</v>
       </c>
       <c r="U25" t="n">
-        <v>0.001083383871388029</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0001829678200648997</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="b">
@@ -2424,22 +2424,22 @@
         <v>0.5881723855456741</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.08081362146079096</v>
+        <v>0.4554077105400403</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5073587640848831</v>
+        <v>0.1327646750056338</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01485483989865836</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5222136039835414</v>
+        <v>0.4554077105401689</v>
       </c>
       <c r="U26" t="n">
-        <v>0.001037679015511073</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0001372629641879442</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="b">
@@ -2502,22 +2502,22 @@
         <v>0.6376846355803355</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.06254818729820089</v>
+        <v>0.6588836812540453</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7002328228785364</v>
+        <v>-0.02119904567370978</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02151180156137758</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7217446244399139</v>
+        <v>0.6588836812541738</v>
       </c>
       <c r="U27" t="n">
-        <v>0.000997110328266786</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V27" t="n">
-        <v>9.669427694365694e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="b">
@@ -2580,22 +2580,22 @@
         <v>0.6457534615586344</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05043610279151456</v>
+        <v>0.6314449715686675</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5953173587671199</v>
+        <v>0.01430848998996692</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.01372057088956639</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5815967878775535</v>
+        <v>0.6314449715687961</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0009783707132881257</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V28" t="n">
-        <v>7.795466196499664e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="b">
@@ -2658,22 +2658,22 @@
         <v>0.6447851034211981</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.1274871034773998</v>
+        <v>0.5617749785344494</v>
       </c>
       <c r="R29" t="n">
-        <v>0.5172979999437983</v>
+        <v>0.08301012488674875</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04574838629268441</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0.5630463862364827</v>
+        <v>0.5617749785345779</v>
       </c>
       <c r="U29" t="n">
-        <v>0.001013575127280765</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0001131590759576356</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="b">
@@ -2736,22 +2736,22 @@
         <v>0.4111360338254182</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.07706987653953584</v>
+        <v>0.3157116145950068</v>
       </c>
       <c r="R30" t="n">
-        <v>0.488205910364954</v>
+        <v>0.09542441923041139</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.02867318358615745</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4595327267787966</v>
+        <v>0.3157116145951354</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001006529123043472</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0001061130717203433</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="b">
@@ -2814,22 +2814,22 @@
         <v>0.6331652290136854</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.05318200491461678</v>
+        <v>0.7079069580402964</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5799832240990687</v>
+        <v>-0.07474172902661091</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0001288661836727644</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5798543579153959</v>
+        <v>0.7079069580404249</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0009697557302878717</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V31" t="n">
-        <v>6.933967896474267e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="b">
@@ -2892,22 +2892,22 @@
         <v>0.3529654534556382</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.005837707808630965</v>
+        <v>0.3121422412936599</v>
       </c>
       <c r="R32" t="n">
-        <v>0.3588031612642691</v>
+        <v>0.04082321216197832</v>
       </c>
       <c r="S32" t="n">
-        <v>0.03500350373591801</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3938066650001871</v>
+        <v>0.3121422412937884</v>
       </c>
       <c r="U32" t="n">
-        <v>0.001025819176599225</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0001254031252760955</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="b">
@@ -2970,22 +2970,22 @@
         <v>0.5289511948748361</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.06423461738693476</v>
+        <v>0.4811773804434596</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4647165774879014</v>
+        <v>0.04777381443137646</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01233271372865624</v>
+        <v>1.285869558979395e-13</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4523838637592451</v>
+        <v>0.4811773804435882</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0009882803582546729</v>
+        <v>0.001834048387843977</v>
       </c>
       <c r="V33" t="n">
-        <v>8.786430693154395e-05</v>
+        <v>0.0005111754801311683</v>
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="b">
